--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{48132F81-F191-4F1E-8083-16E473A2E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB77C5DF-F06F-4F30-A0A0-6C111DEC817B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,14 +43,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,13 +356,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1368,7 +1367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1795,7 +1794,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2040,11 +2039,35 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="Normal_MIN" xfId="2" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Normal_PRC" xfId="3" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal_MIN" xfId="2"/>
+    <cellStyle name="Normal_PRC" xfId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
   </cellStyles>
@@ -2067,7 +2090,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2133,7 +2156,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -2542,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I21"/>
   <sheetViews>
@@ -2550,21 +2579,21 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2613,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:9" ht="17.45" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
@@ -2622,7 +2651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="39.6">
+    <row r="6" spans="2:9" ht="38.25">
       <c r="B6" s="55" t="s">
         <v>10</v>
       </c>
@@ -2648,7 +2677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="53.4" thickBot="1">
+    <row r="7" spans="2:9" ht="51.75" thickBot="1">
       <c r="B7" s="44" t="s">
         <v>17</v>
       </c>
@@ -2769,7 +2798,7 @@
       <c r="C13" s="53"/>
       <c r="E13" s="53"/>
     </row>
-    <row r="16" spans="2:9" ht="13.8" thickBot="1">
+    <row r="16" spans="2:9" ht="13.5" thickBot="1">
       <c r="B16" s="79" t="s">
         <v>36</v>
       </c>
@@ -2807,7 +2836,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13.8" thickBot="1">
+    <row r="21" spans="2:3" ht="13.5" thickBot="1">
       <c r="B21" s="52" t="s">
         <v>44</v>
       </c>
@@ -2828,24 +2857,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L10" sqref="L10:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3182,7 +3211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="13.8" thickBot="1">
+    <row r="26" spans="2:4" ht="13.5" thickBot="1">
       <c r="B26" s="52" t="s">
         <v>106</v>
       </c>
@@ -3205,32 +3234,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="10" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="23" width="6.6640625" customWidth="1"/>
-    <col min="24" max="30" width="9.6640625" customWidth="1"/>
-    <col min="31" max="37" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="10" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="23" width="6.7109375" customWidth="1"/>
+    <col min="24" max="30" width="9.7109375" customWidth="1"/>
+    <col min="31" max="37" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="17.399999999999999">
+    <row r="2" spans="2:37" ht="18">
       <c r="B2" s="8" t="s">
         <v>108</v>
       </c>
@@ -3270,7 +3299,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:37" ht="31.2" customHeight="1" thickBot="1">
+    <row r="5" spans="2:37" ht="31.15" customHeight="1" thickBot="1">
       <c r="B5" s="54" t="s">
         <v>50</v>
       </c>
@@ -3650,24 +3679,27 @@
       <c r="AK9" s="22"/>
     </row>
     <row r="10" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B10" s="13" t="str">
+      <c r="B10" s="104" t="str">
         <f>SEC_Processes!D10</f>
         <v>MIN_NAT-GAS</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="104" t="str">
         <f>SEC_Processes!E10</f>
         <v>Natural Gas Domestic Supply</v>
       </c>
-      <c r="D10" s="18" t="str">
+      <c r="D10" s="105" t="str">
         <f>SEC_Comm!C10</f>
         <v>NAT-GAS</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="106">
         <v>28</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="F10" s="107">
+        <f>3.4*37/3</f>
+        <v>41.93333333333333</v>
+      </c>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
       <c r="J10" s="91"/>
       <c r="K10" s="92"/>
       <c r="L10" s="93"/>
@@ -3726,24 +3758,27 @@
       <c r="AK10" s="15"/>
     </row>
     <row r="11" spans="2:37" ht="15.75" customHeight="1">
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="108" t="str">
         <f>SEC_Processes!D11</f>
         <v>IMP_NAT-GAS</v>
       </c>
-      <c r="C11" s="19" t="str">
+      <c r="C11" s="108" t="str">
         <f>SEC_Processes!E11</f>
         <v>Natural Gas Imports</v>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="109" t="str">
         <f>SEC_Comm!C10</f>
         <v>NAT-GAS</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="110">
         <v>30</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="F11" s="111">
+        <f>13*37/3</f>
+        <v>160.33333333333334</v>
+      </c>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
       <c r="J11" s="91"/>
       <c r="K11" s="92"/>
       <c r="L11" s="93"/>
@@ -3941,7 +3976,7 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="17" spans="2:7" ht="17.399999999999999">
+    <row r="17" spans="2:7" ht="18">
       <c r="B17" s="8" t="s">
         <v>150</v>
       </c>
@@ -3968,7 +4003,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="39.6">
+    <row r="20" spans="2:7" ht="38.25">
       <c r="B20" s="55" t="s">
         <v>138</v>
       </c>
@@ -3988,7 +4023,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="53.4" thickBot="1">
+    <row r="21" spans="2:7" ht="51.75" thickBot="1">
       <c r="B21" s="44" t="s">
         <v>143</v>
       </c>
@@ -4130,7 +4165,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1">
+    <row r="29" spans="2:7" ht="13.5" thickBot="1">
       <c r="B29" s="23" t="str">
         <f t="shared" si="8"/>
         <v>MIN_SOLAR</v>
@@ -4169,6 +4204,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4363,27 +4418,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC355B7-8157-4E07-97CC-79D51A4B7186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4400,23 +4454,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>